--- a/data/lasso_feature_importance.xlsx
+++ b/data/lasso_feature_importance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,14 +466,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>letter_entropy</t>
+          <t>mean_simulate_freq</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.1549684883766641</v>
+        <v>0.2051944196156612</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1549684883766641</v>
+        <v>0.2051944196156612</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -485,14 +485,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>has_common_suffix</t>
+          <t>letter_entropy</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1239630104500071</v>
+        <v>-0.102159907607735</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1239630104500071</v>
+        <v>0.102159907607735</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -504,14 +504,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>letter_freq_min</t>
+          <t>mean_simulate_random</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1057152121044998</v>
+        <v>0.08911085258659593</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1057152121044998</v>
+        <v>0.08911085258659593</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -523,14 +523,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zipf-value</t>
+          <t>letter_freq_min</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.07143289921555862</v>
+        <v>-0.0664200978941852</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07143289921555862</v>
+        <v>0.0664200978941852</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -542,14 +542,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>starts_with_vowel</t>
+          <t>has_common_suffix</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.04183490192366037</v>
+        <v>0.06590975108805422</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04183490192366037</v>
+        <v>0.06590975108805422</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -561,14 +561,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>scrabble_score</t>
+          <t>position_self_information_2_letters</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.04155343074957227</v>
+        <v>0.06259919925025434</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04155343074957227</v>
+        <v>0.06259919925025434</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -580,14 +580,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>has_repeats</t>
+          <t>positional_freq_mean</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.03981507925667845</v>
+        <v>-0.04508625699731469</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03981507925667845</v>
+        <v>0.04508625699731469</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.03824002355829263</v>
+        <v>-0.04460010640548438</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03824002355829263</v>
+        <v>0.04460010640548438</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -618,14 +618,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>max_consecutive_vowels</t>
+          <t>num_consonants</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.03626408191926966</v>
+        <v>-0.03193285943003201</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03626408191926966</v>
+        <v>0.03193285943003201</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.03133579179349474</v>
+        <v>-0.02510836090348484</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03133579179349474</v>
+        <v>0.02510836090348484</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -656,14 +656,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>contains_y</t>
+          <t>keyboard_distance</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.02616414943312398</v>
+        <v>-0.02249204269391371</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02616414943312398</v>
+        <v>0.02249204269391371</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -675,14 +675,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>num_vowels</t>
+          <t>contains_y</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02508068172503445</v>
+        <v>0.01770853002287317</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02508068172503445</v>
+        <v>0.01770853002287317</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -694,14 +694,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>num_rare_letters</t>
+          <t>max_consecutive_vowels</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.022913585894473</v>
+        <v>-0.01380699672280822</v>
       </c>
       <c r="D14" t="n">
-        <v>0.022913585894473</v>
+        <v>0.01380699672280822</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -713,14 +713,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>keyboard_distance</t>
+          <t>semantic_neighbors_count</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.01998824706119788</v>
+        <v>-0.004046209787933895</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01998824706119788</v>
+        <v>0.004046209787933895</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -732,14 +732,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>semantic_density</t>
+          <t>has_double_letter</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.01569124563914916</v>
+        <v>-0.004027789898856203</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01569124563914916</v>
+        <v>0.004027789898856203</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -751,14 +751,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>has_double_letter</t>
+          <t>rl_expected_steps</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.01393574678108984</v>
+        <v>0.001093199517806314</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01393574678108984</v>
+        <v>0.001093199517806314</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ends_with_vowel</t>
+          <t>starts_with_vowel</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01068294361915728</v>
+        <v>-0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01068294361915728</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>try_expected_value</t>
+          <t>has_common_prefix</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.009055132892813024</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.009055132892813024</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -808,17 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>num_consonants</t>
+          <t>hamming_neighbors</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.008653032068675336</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.008653032068675336</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>has_common_prefix</t>
+          <t>position_rarity</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.005779839626913757</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.005779839626913757</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>position_rarity</t>
+          <t>semantic_density</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.002592420927591456</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002592420927591456</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -865,7 +865,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>hamming_neighbors</t>
+          <t>Zipf-value</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -884,7 +884,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>positional_freq_mean</t>
+          <t>semantic_difficulty</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -903,11 +903,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>max_consecutive_consonants</t>
+          <t>position_self_information</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -922,11 +922,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>semantic_neighbors_count</t>
+          <t>positional_fit</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -941,11 +941,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>num_multiple_letters</t>
+          <t>letter_commonness</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -960,16 +960,73 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>unique_letters</t>
+          <t>scrabble_score</t>
         </is>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>max_consecutive_consonants</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>-0</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="b">
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ends_with_vowel</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>num_rare_letters</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/lasso_feature_importance.xlsx
+++ b/data/lasso_feature_importance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2051944196156612</v>
+        <v>0.1739799923508058</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2051944196156612</v>
+        <v>0.1739799923508058</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.102159907607735</v>
+        <v>-0.09070117067273759</v>
       </c>
       <c r="D3" t="n">
-        <v>0.102159907607735</v>
+        <v>0.09070117067273759</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.08911085258659593</v>
+        <v>0.075531903208368</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08911085258659593</v>
+        <v>0.075531903208368</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -523,14 +523,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>letter_freq_min</t>
+          <t>has_common_suffix</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.0664200978941852</v>
+        <v>0.06336405029141837</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0664200978941852</v>
+        <v>0.06336405029141837</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -542,14 +542,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>has_common_suffix</t>
+          <t>letter_freq_mean</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.06590975108805422</v>
+        <v>-0.05836442457056473</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06590975108805422</v>
+        <v>0.05836442457056473</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06259919925025434</v>
+        <v>0.05131546416597001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06259919925025434</v>
+        <v>0.05131546416597001</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -580,14 +580,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>positional_freq_mean</t>
+          <t>letter_freq_min</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.04508625699731469</v>
+        <v>-0.04954516833731893</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04508625699731469</v>
+        <v>0.04954516833731893</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -599,14 +599,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>letter_freq_mean</t>
+          <t>positional_freq_mean</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.04460010640548438</v>
+        <v>-0.03961742637341892</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04460010640548438</v>
+        <v>0.03961742637341892</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -618,14 +618,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>num_consonants</t>
+          <t>mean_simulate_entropy</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.03193285943003201</v>
+        <v>0.03677132839765453</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03193285943003201</v>
+        <v>0.03677132839765453</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -637,14 +637,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>positional_freq_min</t>
+          <t>num_consonants</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.02510836090348484</v>
+        <v>-0.02946361082800833</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02510836090348484</v>
+        <v>0.02946361082800833</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -656,14 +656,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>keyboard_distance</t>
+          <t>rl_expected_steps_high_training</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.02249204269391371</v>
+        <v>0.02653179362629432</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02249204269391371</v>
+        <v>0.02653179362629432</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -675,14 +675,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>contains_y</t>
+          <t>rl_expected_steps_low_training</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01770853002287317</v>
+        <v>0.02549606663292138</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01770853002287317</v>
+        <v>0.02549606663292138</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -694,14 +694,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>max_consecutive_vowels</t>
+          <t>positional_freq_min</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.01380699672280822</v>
+        <v>-0.02418210784265659</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01380699672280822</v>
+        <v>0.02418210784265659</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -713,14 +713,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>semantic_neighbors_count</t>
+          <t>keyboard_distance</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.004046209787933895</v>
+        <v>-0.02344671849475683</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004046209787933895</v>
+        <v>0.02344671849475683</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -732,14 +732,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>has_double_letter</t>
+          <t>max_consecutive_vowels</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.004027789898856203</v>
+        <v>-0.01451666256374998</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004027789898856203</v>
+        <v>0.01451666256374998</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -751,14 +751,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rl_expected_steps</t>
+          <t>contains_y</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.001093199517806314</v>
+        <v>0.0134843106780012</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001093199517806314</v>
+        <v>0.0134843106780012</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>starts_with_vowel</t>
+          <t>semantic_neighbors_count</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0</v>
+        <v>-0.00647450487016636</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.00647450487016636</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>has_common_prefix</t>
+          <t>has_double_letter</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-0.003736865625921996</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.003736865625921996</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -808,11 +808,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>hamming_neighbors</t>
+          <t>position_self_information</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>position_rarity</t>
+          <t>ends_with_vowel</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -846,11 +846,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>semantic_density</t>
+          <t>letter_commonness</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -865,11 +865,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Zipf-value</t>
+          <t>positional_fit</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -884,11 +884,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>semantic_difficulty</t>
+          <t>Zipf-value</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -903,11 +903,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>position_self_information</t>
+          <t>semantic_difficulty</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>positional_fit</t>
+          <t>hamming_neighbors</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>letter_commonness</t>
+          <t>semantic_density</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -960,11 +960,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>scrabble_score</t>
+          <t>max_consecutive_consonants</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -979,7 +979,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>max_consecutive_consonants</t>
+          <t>starts_with_vowel</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -998,7 +998,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ends_with_vowel</t>
+          <t>scrabble_score</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1017,16 +1017,54 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>has_common_prefix</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>position_rarity</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>num_rare_letters</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="b">
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/lasso_feature_importance.xlsx
+++ b/data/lasso_feature_importance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1739799923508058</v>
+        <v>0.178303355747131</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1739799923508058</v>
+        <v>0.178303355747131</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.09070117067273759</v>
+        <v>-0.07641219687193965</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09070117067273759</v>
+        <v>0.07641219687193965</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.075531903208368</v>
+        <v>0.0736546538022843</v>
       </c>
       <c r="D4" t="n">
-        <v>0.075531903208368</v>
+        <v>0.0736546538022843</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.06336405029141837</v>
+        <v>0.06202189967447377</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06336405029141837</v>
+        <v>0.06202189967447377</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.05836442457056473</v>
+        <v>-0.0464456639261512</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05836442457056473</v>
+        <v>0.0464456639261512</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -561,14 +561,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>position_self_information_2_letters</t>
+          <t>position_self_entropy_2_letters</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.05131546416597001</v>
+        <v>0.04458562937445645</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05131546416597001</v>
+        <v>0.04458562937445645</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.04954516833731893</v>
+        <v>-0.04424412569737338</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04954516833731893</v>
+        <v>0.04424412569737338</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.03961742637341892</v>
+        <v>-0.03775170605540336</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03961742637341892</v>
+        <v>0.03775170605540336</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.03677132839765453</v>
+        <v>0.03424061005809172</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03677132839765453</v>
+        <v>0.03424061005809172</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.02946361082800833</v>
+        <v>-0.02989666828278671</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02946361082800833</v>
+        <v>0.02989666828278671</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -656,14 +656,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rl_expected_steps_high_training</t>
+          <t>positional_freq_min</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.02653179362629432</v>
+        <v>-0.02684690416494361</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02653179362629432</v>
+        <v>0.02684690416494361</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -675,14 +675,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>rl_expected_steps_low_training</t>
+          <t>feedback_entropy</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02549606663292138</v>
+        <v>-0.02619255998920411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02549606663292138</v>
+        <v>0.02619255998920411</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -694,14 +694,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>positional_freq_min</t>
+          <t>rl_expected_steps_high_training</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.02418210784265659</v>
+        <v>0.02545801758501877</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02418210784265659</v>
+        <v>0.02545801758501877</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -713,14 +713,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>keyboard_distance</t>
+          <t>rl_expected_steps_low_training</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.02344671849475683</v>
+        <v>0.0251220131358795</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02344671849475683</v>
+        <v>0.0251220131358795</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -732,14 +732,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>max_consecutive_vowels</t>
+          <t>keyboard_distance</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.01451666256374998</v>
+        <v>-0.02097524957571171</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01451666256374998</v>
+        <v>0.02097524957571171</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -751,14 +751,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>contains_y</t>
+          <t>max_consecutive_vowels</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0134843106780012</v>
+        <v>-0.01392791448723347</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0134843106780012</v>
+        <v>0.01392791448723347</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -770,14 +770,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>semantic_neighbors_count</t>
+          <t>contains_y</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.00647450487016636</v>
+        <v>0.01271672556695404</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00647450487016636</v>
+        <v>0.01271672556695404</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -789,14 +789,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>has_double_letter</t>
+          <t>semantic_distance_to_center</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.003736865625921996</v>
+        <v>0.005199280701381401</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003736865625921996</v>
+        <v>0.005199280701381401</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -808,17 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>position_self_information</t>
+          <t>has_double_letter</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0</v>
+        <v>-0.004724073956162494</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.004724073956162494</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ends_with_vowel</t>
+          <t>semantic_neighbors_count</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-0.002434228423328496</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.002434228423328496</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>letter_commonness</t>
+          <t>Zipf-value</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0</v>
+        <v>-0.0007770624426945546</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.0007770624426945546</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -865,7 +865,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>positional_fit</t>
+          <t>letter_commonness</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -884,11 +884,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Zipf-value</t>
+          <t>rl_expected_steps_little_training</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -903,7 +903,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>semantic_difficulty</t>
+          <t>position_self_information</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -922,7 +922,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>hamming_neighbors</t>
+          <t>semantic_distance</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -941,11 +941,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>semantic_density</t>
+          <t>num_rare_letters</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -960,11 +960,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>max_consecutive_consonants</t>
+          <t>positional_fit</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -979,7 +979,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>starts_with_vowel</t>
+          <t>position_self_entropy</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -998,7 +998,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>scrabble_score</t>
+          <t>semantic_difficulty</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>has_common_prefix</t>
+          <t>semantic_density</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>position_rarity</t>
+          <t>starts_with_vowel</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1055,16 +1055,130 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>num_rare_letters</t>
+          <t>has_common_prefix</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>hamming_neighbors</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>position_rarity</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>scrabble_score</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>max_consecutive_consonants</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ends_with_vowel</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>position_self_information_2_letters</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
         <v>0</v>
       </c>
     </row>
